--- a/volatility/src/1st.xlsx
+++ b/volatility/src/1st.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsushi_mld/git/volatility/volatility/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2443CC-659E-A741-A510-BA2BEC0265AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9596C1B-B032-4745-8929-6412AE4CE3BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="460" windowWidth="26100" windowHeight="21140" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12300" yWindow="460" windowWidth="26100" windowHeight="21140" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jpy" sheetId="51" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <r>
       <t>C</t>
@@ -152,6 +152,70 @@
   </si>
   <si>
     <t>AUDCHF</t>
+  </si>
+  <si>
+    <t>AUDJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AUDNZD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AUDUSD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CHFJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURAUD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURGBP</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURUSD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPAUD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPUSD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NZDJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NZDUSD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>USDCAD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>USDCHF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>USDJPY</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -620,7 +684,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -644,7 +708,7 @@
         <v>735</v>
       </c>
       <c r="J1" s="1">
-        <f>VLOOKUP(B2,median!A1:B4,2)</f>
+        <f>VLOOKUP(B2,median!A1:B20,2)</f>
         <v>1.4</v>
       </c>
       <c r="K1" s="1">
@@ -864,7 +928,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -888,7 +952,7 @@
         <v>735</v>
       </c>
       <c r="J1" s="1">
-        <f>VLOOKUP(B2,median!A1:B4,2)</f>
+        <f>VLOOKUP(B2,median!A1:B20,2)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="K1" s="1">
@@ -1200,10 +1264,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="21" customHeight="1"/>
@@ -1221,26 +1285,154 @@
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" customHeight="1">
       <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="21" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="21" customHeight="1">
+      <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B13" s="5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="21" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="21" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="21" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="21" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="21" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="21" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="21" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/volatility/src/1st.xlsx
+++ b/volatility/src/1st.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsushi_mld/git/volatility/volatility/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9596C1B-B032-4745-8929-6412AE4CE3BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B3950D-6CD5-284E-B013-F1D778325C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12300" yWindow="460" windowWidth="26100" windowHeight="21140" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,9 +151,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>AUDCHF</t>
-  </si>
-  <si>
     <t>AUDJPY</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -216,6 +213,9 @@
   <si>
     <t>USDJPY</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPCHF</t>
   </si>
 </sst>
 </file>
@@ -684,7 +684,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -705,7 +705,7 @@
       </c>
       <c r="I1" s="1">
         <f>amount!B1</f>
-        <v>735</v>
+        <v>1000</v>
       </c>
       <c r="J1" s="1">
         <f>VLOOKUP(B2,median!A1:B20,2)</f>
@@ -727,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="10">
-        <v>131</v>
+        <v>82.375799999999998</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>MID(B2,4,3)</f>
@@ -759,7 +759,7 @@
       <c r="C5" s="6"/>
       <c r="K5" s="1">
         <f>I1*K1*K3</f>
-        <v>525</v>
+        <v>714.28571428571433</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>5</v>
@@ -768,12 +768,12 @@
     <row r="6" spans="2:14" ht="24" customHeight="1">
       <c r="B6" s="2">
         <f>INT(K6*100)</f>
-        <v>7875</v>
+        <v>10714</v>
       </c>
       <c r="C6" s="6"/>
       <c r="K6" s="1">
         <f>K5*3/20</f>
-        <v>78.75</v>
+        <v>107.14285714285715</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="24" customHeight="1">
@@ -798,7 +798,7 @@
       </c>
       <c r="C9" s="9">
         <f>IF($C$2="buy",I11,J11)</f>
-        <v>129.6</v>
+        <v>80.975799999999992</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1">
@@ -807,7 +807,7 @@
       </c>
       <c r="C10" s="9">
         <f>IF($C$2="buy",I12,J12)</f>
-        <v>132.4</v>
+        <v>83.775800000000004</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -817,11 +817,11 @@
       <c r="D11" s="3"/>
       <c r="I11" s="1">
         <f>D2+I7</f>
-        <v>132.4</v>
+        <v>83.775800000000004</v>
       </c>
       <c r="J11" s="1">
         <f>I12</f>
-        <v>129.6</v>
+        <v>80.975799999999992</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1">
@@ -830,15 +830,15 @@
       </c>
       <c r="C12" s="9">
         <f>IF($C$2="buy",I14,J14)</f>
-        <v>131.69999999999999</v>
+        <v>83.075800000000001</v>
       </c>
       <c r="I12" s="1">
         <f>D2-I7</f>
-        <v>129.6</v>
+        <v>80.975799999999992</v>
       </c>
       <c r="J12" s="1">
         <f>I11</f>
-        <v>132.4</v>
+        <v>83.775800000000004</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1">
@@ -847,7 +847,7 @@
       </c>
       <c r="C13" s="9">
         <f>IF($C$2="buy",I15,J15)</f>
-        <v>133.1</v>
+        <v>84.475800000000007</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="24" customHeight="1">
@@ -856,15 +856,15 @@
       </c>
       <c r="C14" s="9">
         <f>IF($C$2="buy",I16,J16)</f>
-        <v>130.29999999999998</v>
+        <v>81.675799999999995</v>
       </c>
       <c r="I14" s="1">
         <f>D2-I8</f>
-        <v>130.30000000000001</v>
+        <v>81.675799999999995</v>
       </c>
       <c r="J14" s="1">
         <f>D2+I8</f>
-        <v>131.69999999999999</v>
+        <v>83.075800000000001</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1">
@@ -872,11 +872,11 @@
       <c r="C15" s="6"/>
       <c r="I15" s="1">
         <f>I14-I7</f>
-        <v>128.9</v>
+        <v>80.27579999999999</v>
       </c>
       <c r="J15" s="1">
         <f>J14+I7</f>
-        <v>133.1</v>
+        <v>84.475800000000007</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1">
@@ -884,11 +884,11 @@
       <c r="C16" s="6"/>
       <c r="I16" s="1">
         <f>I14+I7</f>
-        <v>131.70000000000002</v>
+        <v>83.075800000000001</v>
       </c>
       <c r="J16" s="1">
         <f>J14-I7</f>
-        <v>130.29999999999998</v>
+        <v>81.675799999999995</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24" customHeight="1">
@@ -928,7 +928,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -949,15 +949,15 @@
       </c>
       <c r="I1" s="1">
         <f>amount!B1</f>
-        <v>735</v>
+        <v>1000</v>
       </c>
       <c r="J1" s="1">
         <f>VLOOKUP(B2,median!A1:B20,2)</f>
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="K1" s="1">
         <f>1/J1</f>
-        <v>0.90909090909090906</v>
+        <v>0.5</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>13</v>
@@ -965,13 +965,13 @@
     </row>
     <row r="2" spans="2:14" ht="24" customHeight="1">
       <c r="B2" s="10" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="10">
-        <v>1</v>
+        <v>1.2761800000000001</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>MID(B2,4,3)</f>
@@ -1007,18 +1007,18 @@
       <c r="C5" s="6"/>
       <c r="K5" s="1">
         <f>I1*K1*K3</f>
-        <v>610.21170610211698</v>
+        <v>456.62100456621005</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="24" customHeight="1">
       <c r="B6" s="2">
         <f>INT(K6*100)</f>
-        <v>9153</v>
+        <v>6849</v>
       </c>
       <c r="C6" s="6"/>
       <c r="K6" s="1">
         <f>K5*3/20</f>
-        <v>91.531755915317547</v>
+        <v>68.493150684931507</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>4</v>
@@ -1029,7 +1029,7 @@
       <c r="C7" s="6"/>
       <c r="I7" s="1">
         <f>J1/100</f>
-        <v>1.1000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>5</v>
@@ -1040,7 +1040,7 @@
       <c r="C8" s="6"/>
       <c r="I8" s="1">
         <f>ROUND(I7/amount!B2,4)</f>
-        <v>5.4999999999999997E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="24" customHeight="1">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="C9" s="9">
         <f>IF($C$2="buy",I11,J11)</f>
-        <v>0.98899999999999999</v>
+        <v>1.2561800000000001</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C10" s="9">
         <f>IF($C$2="buy",I12,J12)</f>
-        <v>1.0109999999999999</v>
+        <v>1.2961800000000001</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -1068,11 +1068,11 @@
       <c r="D11" s="3"/>
       <c r="I11" s="1">
         <f>D2+I7</f>
-        <v>1.0109999999999999</v>
+        <v>1.2961800000000001</v>
       </c>
       <c r="J11" s="1">
         <f>I12</f>
-        <v>0.98899999999999999</v>
+        <v>1.2561800000000001</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1">
@@ -1081,15 +1081,15 @@
       </c>
       <c r="C12" s="9">
         <f>IF($C$2="buy",I14,J14)</f>
-        <v>1.0055000000000001</v>
+        <v>1.2861800000000001</v>
       </c>
       <c r="I12" s="1">
         <f>D2-I7</f>
-        <v>0.98899999999999999</v>
+        <v>1.2561800000000001</v>
       </c>
       <c r="J12" s="1">
         <f>I11</f>
-        <v>1.0109999999999999</v>
+        <v>1.2961800000000001</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C13" s="9">
         <f>IF($C$2="buy",I15,J15)</f>
-        <v>1.0165</v>
+        <v>1.3061800000000001</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="24" customHeight="1">
@@ -1107,15 +1107,15 @@
       </c>
       <c r="C14" s="9">
         <f>IF($C$2="buy",I16,J16)</f>
-        <v>0.99450000000000005</v>
+        <v>1.2661800000000001</v>
       </c>
       <c r="I14" s="1">
         <f>D2-I8</f>
-        <v>0.99450000000000005</v>
+        <v>1.2661800000000001</v>
       </c>
       <c r="J14" s="1">
         <f>D2+I8</f>
-        <v>1.0055000000000001</v>
+        <v>1.2861800000000001</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1">
@@ -1123,11 +1123,11 @@
       <c r="C15" s="6"/>
       <c r="I15" s="1">
         <f>I14-I7</f>
-        <v>0.98350000000000004</v>
+        <v>1.2461800000000001</v>
       </c>
       <c r="J15" s="1">
         <f>J14+I7</f>
-        <v>1.0165</v>
+        <v>1.3061800000000001</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1">
@@ -1135,11 +1135,11 @@
       <c r="C16" s="6"/>
       <c r="I16" s="1">
         <f>I14+I7</f>
-        <v>1.0055000000000001</v>
+        <v>1.2861800000000001</v>
       </c>
       <c r="J16" s="1">
         <f>J14-I7</f>
-        <v>0.99450000000000005</v>
+        <v>1.2661800000000001</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24" customHeight="1">
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="5">
-        <v>735</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
@@ -1285,7 +1285,7 @@
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5">
         <v>1.5</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5">
         <v>1.1000000000000001</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="4" spans="1:2" ht="21" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="6" spans="1:2" ht="21" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5">
         <v>1.3</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="7" spans="1:2" ht="21" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5">
         <v>2.1</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="9" spans="1:2" ht="21" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5">
         <v>1.2</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="10" spans="1:2" ht="21" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5">
         <v>1.6</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="11" spans="1:2" ht="21" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5">
         <v>1.3</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="12" spans="1:2" ht="21" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5">
         <v>3.3</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="14" spans="1:2" ht="21" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5">
         <v>2.6</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="15" spans="1:2" ht="21" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5">
         <v>2.1</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="16" spans="1:2" ht="21" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5">
         <v>1.3</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="17" spans="1:2" ht="21" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="5">
         <v>1.2</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="18" spans="1:2" ht="21" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="5">
         <v>1.5</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="19" spans="1:2" ht="21" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="5">
         <v>1.2</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="20" spans="1:2" ht="21" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="5">
         <v>1.3</v>
